--- a/data/trans_orig/P57_AC_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41A41C00-21D7-4A11-BB8E-895FD22C385C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2B9E1E-155B-4539-A437-A8CE2E2922DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A13F7AC-272F-438A-91AC-9EA3BA2B1E49}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2434A898-9123-4C03-990D-2729D43C24CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
-  <si>
-    <t>dukeCdic en 2007 (Tasa respuesta: 99,94%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="595">
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>26,3%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>29,87%</t>
   </si>
   <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
@@ -107,28 +107,28 @@
     <t>73,7%</t>
   </si>
   <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
   </si>
   <si>
     <t>70,13%</t>
   </si>
   <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
   </si>
   <si>
     <t>71,96%</t>
   </si>
   <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>20,35%</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>26,51%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
   </si>
   <si>
     <t>79,65%</t>
   </si>
   <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>73,49%</t>
   </si>
   <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
   </si>
   <si>
     <t>76,53%</t>
   </si>
   <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,1699 +197,1633 @@
     <t>7,49%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>8,67%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2015 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
   </si>
   <si>
     <t>15,89%</t>
   </si>
   <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>84,11%</t>
   </si>
   <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,8%</t>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>88,38%</t>
   </si>
   <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>dukeCdic en 2012 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>dukeCdic en 2015 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>dukeCdic en 2023 (Tasa respuesta: 98,67%)</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>86,35%</t>
   </si>
   <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
   <si>
     <t>84,93%</t>
   </si>
   <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
+    <t>83,88%</t>
   </si>
   <si>
     <t>85,61%</t>
   </si>
   <si>
-    <t>86,33%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4AF341-DDC4-4807-8319-CF93ED43163E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0767C400-8874-4F88-A9B4-F325EC1CA00D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2628,7 +2562,7 @@
         <v>368</v>
       </c>
       <c r="D8" s="7">
-        <v>391873</v>
+        <v>391874</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2679,7 +2613,7 @@
         <v>464</v>
       </c>
       <c r="D9" s="7">
-        <v>491990</v>
+        <v>491991</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3048,10 +2982,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -3060,13 +2994,13 @@
         <v>45833</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -3075,13 +3009,13 @@
         <v>81300</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3030,13 @@
         <v>167841</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>156</v>
@@ -3111,13 +3045,13 @@
         <v>161835</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>327</v>
@@ -3126,13 +3060,13 @@
         <v>329676</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,7 +3122,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3200,13 +3134,13 @@
         <v>42796</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -3215,13 +3149,13 @@
         <v>59738</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -3230,13 +3164,13 @@
         <v>102534</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3185,13 @@
         <v>228015</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>214</v>
@@ -3266,13 +3200,13 @@
         <v>218406</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>437</v>
@@ -3281,13 +3215,13 @@
         <v>446421</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,7 +3277,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3355,13 +3289,13 @@
         <v>50233</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -3370,13 +3304,13 @@
         <v>77482</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>127</v>
@@ -3385,13 +3319,13 @@
         <v>127715</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3340,13 @@
         <v>564794</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>546</v>
@@ -3421,13 +3355,13 @@
         <v>559757</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1091</v>
@@ -3436,13 +3370,13 @@
         <v>1124551</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,7 +3432,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3510,13 +3444,13 @@
         <v>105867</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>122</v>
@@ -3525,13 +3459,13 @@
         <v>132215</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>225</v>
@@ -3540,13 +3474,13 @@
         <v>238082</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3495,13 @@
         <v>636378</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>622</v>
@@ -3576,13 +3510,13 @@
         <v>650145</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1254</v>
@@ -3591,13 +3525,13 @@
         <v>1286523</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3599,13 @@
         <v>480348</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="H28" s="7">
         <v>593</v>
@@ -3680,28 +3614,28 @@
         <v>627165</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>1065</v>
       </c>
       <c r="N28" s="7">
-        <v>1107513</v>
+        <v>1107512</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3650,13 @@
         <v>2793561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>2702</v>
@@ -3731,13 +3665,13 @@
         <v>2749901</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>5442</v>
@@ -3746,13 +3680,13 @@
         <v>5543463</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,7 +3728,7 @@
         <v>6507</v>
       </c>
       <c r="N30" s="7">
-        <v>6650976</v>
+        <v>6650975</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3808,7 +3742,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B20E851-C9EC-4B73-A82C-EFF3F4A537A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A7C7BA-FE34-4011-9A65-140522C4E8A2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3849,7 +3783,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3954,39 +3888,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,39 +3933,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,39 +3978,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4027,13 @@
         <v>107575</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -4108,13 +4042,13 @@
         <v>114465</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>206</v>
@@ -4123,13 +4057,13 @@
         <v>222040</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4078,13 @@
         <v>395995</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>373</v>
@@ -4159,13 +4093,13 @@
         <v>408105</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>743</v>
@@ -4174,13 +4108,13 @@
         <v>804100</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4182,13 @@
         <v>38273</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -4263,13 +4197,13 @@
         <v>43684</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -4278,13 +4212,13 @@
         <v>81957</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4233,13 @@
         <v>284746</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>276</v>
@@ -4314,13 +4248,13 @@
         <v>296350</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>557</v>
@@ -4329,13 +4263,13 @@
         <v>581096</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4337,13 @@
         <v>124159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>172</v>
@@ -4418,13 +4352,13 @@
         <v>187836</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>289</v>
@@ -4433,13 +4367,13 @@
         <v>311995</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4388,13 @@
         <v>536755</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>449</v>
@@ -4469,13 +4403,13 @@
         <v>482383</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>951</v>
@@ -4484,13 +4418,13 @@
         <v>1019137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4492,13 @@
         <v>31235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -4573,13 +4507,13 @@
         <v>50219</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -4588,13 +4522,13 @@
         <v>81453</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4543,13 @@
         <v>180368</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>163</v>
@@ -4624,13 +4558,13 @@
         <v>168479</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>329</v>
@@ -4639,13 +4573,13 @@
         <v>348849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,7 +4635,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4713,13 +4647,13 @@
         <v>43651</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -4728,13 +4662,13 @@
         <v>54094</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -4743,13 +4677,13 @@
         <v>97745</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4698,13 @@
         <v>226186</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>155</v>
       </c>
       <c r="H20" s="7">
         <v>218</v>
@@ -4779,13 +4713,13 @@
         <v>224837</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="M20" s="7">
         <v>435</v>
@@ -4794,13 +4728,13 @@
         <v>451023</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,7 +4790,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4868,13 +4802,13 @@
         <v>100287</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -4883,13 +4817,13 @@
         <v>116489</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>195</v>
@@ -4898,13 +4832,13 @@
         <v>216775</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4853,13 @@
         <v>554596</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>527</v>
@@ -4934,13 +4868,13 @@
         <v>569520</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>1045</v>
@@ -4949,13 +4883,13 @@
         <v>1124117</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,7 +4945,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5023,13 +4957,13 @@
         <v>177732</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>167</v>
@@ -5038,13 +4972,13 @@
         <v>184303</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>324</v>
@@ -5053,13 +4987,13 @@
         <v>362035</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5008,13 @@
         <v>597439</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>588</v>
@@ -5089,13 +5023,13 @@
         <v>637468</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>1144</v>
@@ -5104,13 +5038,13 @@
         <v>1234907</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5112,13 @@
         <v>622911</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>686</v>
@@ -5193,13 +5127,13 @@
         <v>751091</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>1258</v>
@@ -5208,13 +5142,13 @@
         <v>1374002</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,16 +5160,16 @@
         <v>2610</v>
       </c>
       <c r="D29" s="7">
-        <v>2776086</v>
+        <v>2776087</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H29" s="7">
         <v>2594</v>
@@ -5244,13 +5178,13 @@
         <v>2787141</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M29" s="7">
         <v>5204</v>
@@ -5259,13 +5193,13 @@
         <v>5563228</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,7 +5211,7 @@
         <v>3182</v>
       </c>
       <c r="D30" s="7">
-        <v>3398997</v>
+        <v>3398998</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5321,7 +5255,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5345,7 +5279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BDF1CD-B56C-4960-AFE1-6DC888C37B77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BE604E-AE40-4740-A01B-B115C5A4DE3E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5362,7 +5296,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5469,13 +5403,13 @@
         <v>53608</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>63</v>
@@ -5484,13 +5418,13 @@
         <v>65189</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>112</v>
@@ -5499,13 +5433,13 @@
         <v>118797</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5454,13 @@
         <v>233214</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>211</v>
@@ -5535,13 +5469,13 @@
         <v>220603</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>423</v>
@@ -5550,13 +5484,13 @@
         <v>453817</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5558,13 @@
         <v>78517</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -5639,13 +5573,13 @@
         <v>90068</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>157</v>
@@ -5654,13 +5588,13 @@
         <v>168586</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5609,13 @@
         <v>419988</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="H8" s="7">
         <v>399</v>
@@ -5690,13 +5624,13 @@
         <v>428575</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>794</v>
@@ -5705,13 +5639,13 @@
         <v>848562</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5713,13 @@
         <v>59010</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -5794,13 +5728,13 @@
         <v>67131</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>128</v>
@@ -5809,13 +5743,13 @@
         <v>126141</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5764,13 @@
         <v>258690</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>267</v>
@@ -5845,13 +5779,13 @@
         <v>266619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>536</v>
@@ -5860,13 +5794,13 @@
         <v>525309</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5868,13 @@
         <v>49049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -5949,13 +5883,13 @@
         <v>51044</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -5964,13 +5898,13 @@
         <v>100093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,16 +5916,16 @@
         <v>307</v>
       </c>
       <c r="D14" s="7">
-        <v>318891</v>
+        <v>318890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -6000,13 +5934,13 @@
         <v>334178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>620</v>
@@ -6015,13 +5949,13 @@
         <v>653068</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,7 +5967,7 @@
         <v>352</v>
       </c>
       <c r="D15" s="7">
-        <v>367940</v>
+        <v>367939</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6089,13 +6023,13 @@
         <v>23456</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -6104,13 +6038,13 @@
         <v>24979</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -6119,13 +6053,13 @@
         <v>48435</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6074,13 @@
         <v>187765</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>199</v>
@@ -6155,13 +6089,13 @@
         <v>193608</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -6170,13 +6104,13 @@
         <v>381373</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,7 +6166,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6244,13 +6178,13 @@
         <v>43956</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -6259,13 +6193,13 @@
         <v>68667</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="M19" s="7">
         <v>106</v>
@@ -6274,13 +6208,13 @@
         <v>112623</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6229,13 @@
         <v>219167</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>198</v>
@@ -6310,13 +6244,13 @@
         <v>202509</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>414</v>
@@ -6325,13 +6259,13 @@
         <v>421676</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,7 +6321,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6399,13 +6333,13 @@
         <v>147960</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="H22" s="7">
         <v>147</v>
@@ -6414,13 +6348,13 @@
         <v>162286</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>275</v>
@@ -6429,13 +6363,13 @@
         <v>310246</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>90</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6384,13 @@
         <v>505095</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="H23" s="7">
         <v>493</v>
@@ -6465,13 +6399,13 @@
         <v>522106</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>441</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="M23" s="7">
         <v>942</v>
@@ -6480,13 +6414,13 @@
         <v>1027201</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>443</v>
+        <v>98</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,7 +6476,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6554,13 +6488,13 @@
         <v>122762</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -6569,13 +6503,13 @@
         <v>129423</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>222</v>
+        <v>431</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>232</v>
@@ -6584,13 +6518,13 @@
         <v>252185</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6539,13 @@
         <v>655821</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="H26" s="7">
         <v>639</v>
@@ -6620,13 +6554,13 @@
         <v>694694</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>232</v>
+        <v>440</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="M26" s="7">
         <v>1271</v>
@@ -6635,13 +6569,13 @@
         <v>1350515</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6643,13 @@
         <v>578318</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="H28" s="7">
         <v>598</v>
@@ -6724,13 +6658,13 @@
         <v>658789</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="M28" s="7">
         <v>1146</v>
@@ -6739,13 +6673,13 @@
         <v>1237107</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6694,13 @@
         <v>2798630</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="H29" s="7">
         <v>2719</v>
@@ -6775,13 +6709,13 @@
         <v>2862891</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="M29" s="7">
         <v>5387</v>
@@ -6790,13 +6724,13 @@
         <v>5661522</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,7 +6786,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6876,7 +6810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB014E57-B7FD-456E-9AD0-21A4B6F532FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E2FDA8-804F-441E-A2B0-15093A3C746D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6893,7 +6827,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7000,13 +6934,13 @@
         <v>10606</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -7015,13 +6949,13 @@
         <v>14933</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -7030,13 +6964,13 @@
         <v>25539</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,13 +6985,13 @@
         <v>249006</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="H5" s="7">
         <v>503</v>
@@ -7066,13 +7000,13 @@
         <v>254067</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="M5" s="7">
         <v>816</v>
@@ -7081,13 +7015,13 @@
         <v>503073</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7089,13 @@
         <v>66408</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>483</v>
       </c>
       <c r="H7" s="7">
         <v>104</v>
@@ -7170,13 +7104,13 @@
         <v>77001</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="M7" s="7">
         <v>159</v>
@@ -7185,13 +7119,13 @@
         <v>143409</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>504</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7140,13 @@
         <v>448312</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>490</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="H8" s="7">
         <v>610</v>
@@ -7221,13 +7155,13 @@
         <v>475461</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="M8" s="7">
         <v>932</v>
@@ -7236,13 +7170,13 @@
         <v>923773</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>511</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,13 +7244,13 @@
         <v>38822</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -7325,13 +7259,13 @@
         <v>50323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -7340,13 +7274,13 @@
         <v>89145</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>519</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>399</v>
+        <v>485</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7295,13 @@
         <v>273662</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="H11" s="7">
         <v>420</v>
@@ -7376,13 +7310,13 @@
         <v>301249</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="M11" s="7">
         <v>717</v>
@@ -7391,13 +7325,13 @@
         <v>574911</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>527</v>
+        <v>171</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>407</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,13 +7399,13 @@
         <v>36205</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>530</v>
+        <v>428</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
@@ -7480,13 +7414,13 @@
         <v>48283</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -7495,13 +7429,13 @@
         <v>84488</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7450,13 @@
         <v>281691</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>537</v>
+        <v>437</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="H14" s="7">
         <v>498</v>
@@ -7531,13 +7465,13 @@
         <v>369443</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="M14" s="7">
         <v>745</v>
@@ -7546,13 +7480,13 @@
         <v>651134</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,13 +7554,13 @@
         <v>22153</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>547</v>
+        <v>334</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -7635,13 +7569,13 @@
         <v>26030</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>530</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -7650,13 +7584,13 @@
         <v>48182</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>551</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7605,13 @@
         <v>173839</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>553</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="H17" s="7">
         <v>429</v>
@@ -7686,13 +7620,13 @@
         <v>205466</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>534</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="M17" s="7">
         <v>671</v>
@@ -7701,13 +7635,13 @@
         <v>379306</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>557</v>
+        <v>492</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,7 +7697,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7775,13 +7709,13 @@
         <v>35314</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -7790,13 +7724,13 @@
         <v>34887</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>562</v>
+        <v>77</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>563</v>
+        <v>205</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -7805,13 +7739,13 @@
         <v>70201</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7760,13 @@
         <v>241420</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7">
         <v>381</v>
@@ -7841,13 +7775,13 @@
         <v>240308</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>571</v>
+        <v>87</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>573</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>690</v>
@@ -7856,13 +7790,13 @@
         <v>481729</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>575</v>
+        <v>549</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,7 +7852,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7930,13 +7864,13 @@
         <v>72170</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>577</v>
+        <v>501</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>552</v>
       </c>
       <c r="H22" s="7">
         <v>121</v>
@@ -7945,13 +7879,13 @@
         <v>78711</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="M22" s="7">
         <v>194</v>
@@ -7960,13 +7894,13 @@
         <v>150882</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>556</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,13 +7915,13 @@
         <v>546475</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>584</v>
+        <v>509</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>559</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="H23" s="7">
         <v>823</v>
@@ -7996,13 +7930,13 @@
         <v>601301</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="M23" s="7">
         <v>1341</v>
@@ -8011,13 +7945,13 @@
         <v>1147776</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>564</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,7 +8007,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8085,13 +8019,13 @@
         <v>175791</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="H25" s="7">
         <v>305</v>
@@ -8100,10 +8034,10 @@
         <v>219114</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>595</v>
+        <v>114</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>17</v>
@@ -8115,13 +8049,13 @@
         <v>394905</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>597</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>598</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8070,13 @@
         <v>680495</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="H26" s="7">
         <v>755</v>
@@ -8151,13 +8085,13 @@
         <v>648019</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>603</v>
+        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>1329</v>
@@ -8166,13 +8100,13 @@
         <v>1328513</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>605</v>
+        <v>578</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>606</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,13 +8174,13 @@
         <v>457469</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>345</v>
+        <v>580</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>211</v>
+        <v>581</v>
       </c>
       <c r="H28" s="7">
         <v>868</v>
@@ -8255,13 +8189,13 @@
         <v>549282</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>608</v>
+        <v>555</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="M28" s="7">
         <v>1386</v>
@@ -8270,13 +8204,13 @@
         <v>1006751</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8291,13 +8225,13 @@
         <v>2894901</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>219</v>
+        <v>588</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>354</v>
+        <v>589</v>
       </c>
       <c r="H29" s="7">
         <v>4419</v>
@@ -8306,13 +8240,13 @@
         <v>3095314</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>614</v>
+        <v>562</v>
       </c>
       <c r="M29" s="7">
         <v>7241</v>
@@ -8321,13 +8255,13 @@
         <v>5990215</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,7 +8317,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_AC_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2B9E1E-155B-4539-A437-A8CE2E2922DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16261277-2A81-4837-A36D-96C16EE18CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2434A898-9123-4C03-990D-2729D43C24CF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AAC623D3-53AF-4194-AFE0-7DA686D14EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="597">
   <si>
     <t>Población con apoyo confidencial bajo (Duke) en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>26,3%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
   </si>
   <si>
     <t>29,87%</t>
   </si>
   <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
@@ -107,28 +107,28 @@
     <t>73,7%</t>
   </si>
   <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
   </si>
   <si>
     <t>70,13%</t>
   </si>
   <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
   </si>
   <si>
     <t>71,96%</t>
   </si>
   <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,16 +140,16 @@
     <t>20,35%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
   </si>
   <si>
     <t>26,51%</t>
   </si>
   <si>
-    <t>22,57%</t>
+    <t>22,65%</t>
   </si>
   <si>
     <t>30,5%</t>
@@ -158,19 +158,19 @@
     <t>23,47%</t>
   </si>
   <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
   </si>
   <si>
     <t>79,65%</t>
   </si>
   <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>73,49%</t>
@@ -179,16 +179,16 @@
     <t>69,5%</t>
   </si>
   <si>
-    <t>77,43%</t>
+    <t>77,35%</t>
   </si>
   <si>
     <t>76,53%</t>
   </si>
   <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,19 +197,19 @@
     <t>7,49%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
   </si>
   <si>
     <t>9,68%</t>
@@ -218,31 +218,31 @@
     <t>7,52%</t>
   </si>
   <si>
-    <t>12,21%</t>
+    <t>12,22%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
   </si>
   <si>
     <t>88,23%</t>
   </si>
   <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>90,32%</t>
   </si>
   <si>
-    <t>87,79%</t>
+    <t>87,78%</t>
   </si>
   <si>
     <t>92,48%</t>
@@ -254,1522 +254,1528 @@
     <t>14,0%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2016 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
   </si>
   <si>
     <t>12,68%</t>
   </si>
   <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
   </si>
   <si>
     <t>87,32%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
   </si>
   <si>
     <t>22,54%</t>
   </si>
   <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
   </si>
   <si>
     <t>77,46%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2015 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
   </si>
   <si>
     <t>77,09%</t>
@@ -2235,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0767C400-8874-4F88-A9B4-F325EC1CA00D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D665819-2512-4709-B3CB-9AC22B98E01C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2982,10 +2988,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -2994,13 +3000,13 @@
         <v>45833</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -3009,13 +3015,13 @@
         <v>81300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3036,13 @@
         <v>167841</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>156</v>
@@ -3045,13 +3051,13 @@
         <v>161835</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>327</v>
@@ -3060,13 +3066,13 @@
         <v>329676</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,7 +3128,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3134,13 +3140,13 @@
         <v>42796</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -3149,13 +3155,13 @@
         <v>59738</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -3164,13 +3170,13 @@
         <v>102534</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3191,13 @@
         <v>228015</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>214</v>
@@ -3200,13 +3206,13 @@
         <v>218406</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>437</v>
@@ -3215,13 +3221,13 @@
         <v>446421</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,7 +3283,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3289,13 +3295,13 @@
         <v>50233</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -3304,13 +3310,13 @@
         <v>77482</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>127</v>
@@ -3319,13 +3325,13 @@
         <v>127715</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3346,13 @@
         <v>564794</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>546</v>
@@ -3355,13 +3361,13 @@
         <v>559757</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1091</v>
@@ -3370,13 +3376,13 @@
         <v>1124551</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,7 +3438,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3444,13 +3450,13 @@
         <v>105867</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>122</v>
@@ -3459,13 +3465,13 @@
         <v>132215</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>225</v>
@@ -3474,13 +3480,13 @@
         <v>238082</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3501,13 @@
         <v>636378</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>622</v>
@@ -3510,13 +3516,13 @@
         <v>650145</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1254</v>
@@ -3525,13 +3531,13 @@
         <v>1286523</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3605,13 @@
         <v>480348</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>593</v>
@@ -3614,28 +3620,28 @@
         <v>627165</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1065</v>
       </c>
       <c r="N28" s="7">
-        <v>1107512</v>
+        <v>1107513</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3656,13 @@
         <v>2793561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2702</v>
@@ -3665,13 +3671,13 @@
         <v>2749901</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>5442</v>
@@ -3680,13 +3686,13 @@
         <v>5543463</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,7 +3734,7 @@
         <v>6507</v>
       </c>
       <c r="N30" s="7">
-        <v>6650975</v>
+        <v>6650976</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3742,7 +3748,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3766,7 +3772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A7C7BA-FE34-4011-9A65-140522C4E8A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0898D4A-3BB7-4061-BB28-F39C3E61A2A3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3783,7 +3789,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3888,39 +3894,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,39 +3939,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,39 +3984,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,13 +4033,13 @@
         <v>107575</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -4042,13 +4048,13 @@
         <v>114465</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>206</v>
@@ -4057,13 +4063,13 @@
         <v>222040</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4084,13 @@
         <v>395995</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>373</v>
@@ -4093,13 +4099,13 @@
         <v>408105</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>743</v>
@@ -4108,13 +4114,13 @@
         <v>804100</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,13 +4188,13 @@
         <v>38273</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -4197,13 +4203,13 @@
         <v>43684</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -4212,13 +4218,13 @@
         <v>81957</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4239,13 @@
         <v>284746</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>276</v>
@@ -4248,13 +4254,13 @@
         <v>296350</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>557</v>
@@ -4263,13 +4269,13 @@
         <v>581096</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4343,13 @@
         <v>124159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>172</v>
@@ -4352,13 +4358,13 @@
         <v>187836</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>289</v>
@@ -4367,13 +4373,13 @@
         <v>311995</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4394,13 @@
         <v>536755</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>449</v>
@@ -4403,13 +4409,13 @@
         <v>482383</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>951</v>
@@ -4418,13 +4424,13 @@
         <v>1019137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4498,13 @@
         <v>31235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -4507,13 +4513,13 @@
         <v>50219</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -4522,13 +4528,13 @@
         <v>81453</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4549,13 @@
         <v>180368</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>163</v>
@@ -4558,13 +4564,13 @@
         <v>168479</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>329</v>
@@ -4573,13 +4579,13 @@
         <v>348849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,7 +4641,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4647,13 +4653,13 @@
         <v>43651</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -4662,13 +4668,13 @@
         <v>54094</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -4677,13 +4683,13 @@
         <v>97745</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4704,13 @@
         <v>226186</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>155</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>218</v>
@@ -4713,13 +4719,13 @@
         <v>224837</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>435</v>
@@ -4728,13 +4734,13 @@
         <v>451023</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>192</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,7 +4796,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4802,13 +4808,13 @@
         <v>100287</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -4817,13 +4823,13 @@
         <v>116489</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>195</v>
@@ -4832,13 +4838,13 @@
         <v>216775</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4859,13 @@
         <v>554596</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>527</v>
@@ -4868,13 +4874,13 @@
         <v>569520</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>1045</v>
@@ -4883,13 +4889,13 @@
         <v>1124117</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,7 +4951,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4957,13 +4963,13 @@
         <v>177732</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="H25" s="7">
         <v>167</v>
@@ -4972,13 +4978,13 @@
         <v>184303</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>324</v>
@@ -4987,13 +4993,13 @@
         <v>362035</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5014,13 @@
         <v>597439</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>159</v>
       </c>
       <c r="H26" s="7">
         <v>588</v>
@@ -5023,13 +5029,13 @@
         <v>637468</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>1144</v>
@@ -5038,13 +5044,13 @@
         <v>1234907</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5118,13 @@
         <v>622911</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H28" s="7">
         <v>686</v>
@@ -5127,13 +5133,13 @@
         <v>751091</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>36</v>
       </c>
       <c r="M28" s="7">
         <v>1258</v>
@@ -5142,13 +5148,13 @@
         <v>1374002</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,16 +5166,16 @@
         <v>2610</v>
       </c>
       <c r="D29" s="7">
-        <v>2776087</v>
+        <v>2776086</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="H29" s="7">
         <v>2594</v>
@@ -5181,25 +5187,25 @@
         <v>312</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>46</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>5204</v>
       </c>
       <c r="N29" s="7">
-        <v>5563228</v>
+        <v>5563227</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,7 +5217,7 @@
         <v>3182</v>
       </c>
       <c r="D30" s="7">
-        <v>3398998</v>
+        <v>3398997</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5241,7 +5247,7 @@
         <v>6462</v>
       </c>
       <c r="N30" s="7">
-        <v>6937230</v>
+        <v>6937229</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5255,7 +5261,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5279,7 +5285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BE604E-AE40-4740-A01B-B115C5A4DE3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C446922-9B5A-4F5F-ABC0-AF4B099FE7E9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5296,7 +5302,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5403,13 +5409,13 @@
         <v>53608</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>63</v>
@@ -5418,13 +5424,13 @@
         <v>65189</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>112</v>
@@ -5433,13 +5439,13 @@
         <v>118797</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>108</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5460,13 @@
         <v>233214</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>211</v>
@@ -5469,13 +5475,13 @@
         <v>220603</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>423</v>
@@ -5484,7 +5490,7 @@
         <v>453817</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>332</v>
@@ -5591,10 +5597,10 @@
         <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5615,13 @@
         <v>419988</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>399</v>
@@ -5624,13 +5630,13 @@
         <v>428575</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>794</v>
@@ -5639,13 +5645,13 @@
         <v>848562</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,13 +5719,13 @@
         <v>59010</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -5728,13 +5734,13 @@
         <v>67131</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>128</v>
@@ -5743,13 +5749,13 @@
         <v>126141</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5770,13 @@
         <v>258690</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H11" s="7">
         <v>267</v>
@@ -5779,13 +5785,13 @@
         <v>266619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>362</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>226</v>
+        <v>363</v>
       </c>
       <c r="M11" s="7">
         <v>536</v>
@@ -5794,13 +5800,13 @@
         <v>525309</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,13 +5874,13 @@
         <v>49049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -5883,13 +5889,13 @@
         <v>51044</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -5898,13 +5904,13 @@
         <v>100093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,13 +5925,13 @@
         <v>318890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -5934,13 +5940,13 @@
         <v>334178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>620</v>
@@ -5949,13 +5955,13 @@
         <v>653068</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6029,13 @@
         <v>23456</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -6038,13 +6044,13 @@
         <v>24979</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -6053,13 +6059,13 @@
         <v>48435</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6080,13 @@
         <v>187765</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>199</v>
@@ -6089,13 +6095,13 @@
         <v>193608</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -6104,13 +6110,13 @@
         <v>381373</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,7 +6172,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6178,13 +6184,13 @@
         <v>43956</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -6193,13 +6199,13 @@
         <v>68667</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>106</v>
@@ -6208,13 +6214,13 @@
         <v>112623</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>404</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6235,13 @@
         <v>219167</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>198</v>
@@ -6244,13 +6250,13 @@
         <v>202509</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>414</v>
@@ -6259,13 +6265,13 @@
         <v>421676</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>268</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,7 +6327,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6333,13 +6339,13 @@
         <v>147960</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>147</v>
@@ -6348,13 +6354,13 @@
         <v>162286</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>275</v>
@@ -6363,13 +6369,13 @@
         <v>310246</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>90</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>419</v>
+        <v>322</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,13 +6390,13 @@
         <v>505095</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H23" s="7">
         <v>493</v>
@@ -6399,13 +6405,13 @@
         <v>522106</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>428</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M23" s="7">
         <v>942</v>
@@ -6414,13 +6420,13 @@
         <v>1027201</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>98</v>
+        <v>430</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>427</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,7 +6482,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6488,13 +6494,13 @@
         <v>122762</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -6503,13 +6509,13 @@
         <v>129423</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>432</v>
+        <v>371</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M25" s="7">
         <v>232</v>
@@ -6518,13 +6524,13 @@
         <v>252185</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6545,13 @@
         <v>655821</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H26" s="7">
         <v>639</v>
@@ -6554,13 +6560,13 @@
         <v>694694</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>442</v>
+        <v>379</v>
       </c>
       <c r="M26" s="7">
         <v>1271</v>
@@ -6569,13 +6575,13 @@
         <v>1350515</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,13 +6649,13 @@
         <v>578318</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H28" s="7">
         <v>598</v>
@@ -6658,13 +6664,13 @@
         <v>658789</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M28" s="7">
         <v>1146</v>
@@ -6673,13 +6679,13 @@
         <v>1237107</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>452</v>
+        <v>276</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>453</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,13 +6700,13 @@
         <v>2798630</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H29" s="7">
         <v>2719</v>
@@ -6709,13 +6715,13 @@
         <v>2862891</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M29" s="7">
         <v>5387</v>
@@ -6724,13 +6730,13 @@
         <v>5661522</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>314</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6786,7 +6792,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6810,7 +6816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E2FDA8-804F-441E-A2B0-15093A3C746D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EC6226-2383-4384-A356-F35DCBB51230}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7173,7 +7179,7 @@
         <v>495</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>496</v>
@@ -7250,7 +7256,7 @@
         <v>498</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>499</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -7259,13 +7265,13 @@
         <v>50323</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -7274,13 +7280,13 @@
         <v>89145</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>502</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>485</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>503</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7301,13 @@
         <v>273662</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="H11" s="7">
         <v>420</v>
@@ -7310,13 +7316,13 @@
         <v>301249</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M11" s="7">
         <v>717</v>
@@ -7325,10 +7331,10 @@
         <v>574911</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>508</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>510</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>494</v>
@@ -7399,13 +7405,13 @@
         <v>36205</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
@@ -7414,13 +7420,13 @@
         <v>48283</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -7429,13 +7435,13 @@
         <v>84488</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,13 +7456,13 @@
         <v>281691</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H14" s="7">
         <v>498</v>
@@ -7465,13 +7471,13 @@
         <v>369443</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="M14" s="7">
         <v>745</v>
@@ -7480,13 +7486,13 @@
         <v>651134</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,10 +7560,10 @@
         <v>22153</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>334</v>
@@ -7569,13 +7575,13 @@
         <v>26030</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -7584,10 +7590,10 @@
         <v>48182</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>484</v>
@@ -7605,13 +7611,13 @@
         <v>173839</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H17" s="7">
         <v>429</v>
@@ -7620,13 +7626,13 @@
         <v>205466</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="M17" s="7">
         <v>671</v>
@@ -7635,13 +7641,13 @@
         <v>379306</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>492</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,7 +7703,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7709,13 +7715,13 @@
         <v>35314</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -7724,10 +7730,10 @@
         <v>34887</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>77</v>
+        <v>538</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>205</v>
+        <v>539</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>540</v>
@@ -7775,13 +7781,13 @@
         <v>240308</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>87</v>
+        <v>547</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>549</v>
       </c>
       <c r="M20" s="7">
         <v>690</v>
@@ -7790,13 +7796,13 @@
         <v>481729</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,7 +7858,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7864,13 +7870,13 @@
         <v>72170</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>552</v>
+        <v>210</v>
       </c>
       <c r="H22" s="7">
         <v>121</v>
@@ -7879,13 +7885,13 @@
         <v>78711</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M22" s="7">
         <v>194</v>
@@ -7894,13 +7900,13 @@
         <v>150882</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7915,10 +7921,10 @@
         <v>546475</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>559</v>
+        <v>217</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>560</v>
@@ -8007,7 +8013,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8037,7 +8043,7 @@
         <v>570</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>571</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>17</v>
@@ -8049,13 +8055,13 @@
         <v>394905</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,13 +8076,13 @@
         <v>680495</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H26" s="7">
         <v>755</v>
@@ -8085,13 +8091,13 @@
         <v>648019</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>578</v>
       </c>
       <c r="M26" s="7">
         <v>1329</v>
@@ -8100,10 +8106,10 @@
         <v>1328513</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>41</v>
@@ -8174,13 +8180,13 @@
         <v>457469</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H28" s="7">
         <v>868</v>
@@ -8189,13 +8195,13 @@
         <v>549282</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M28" s="7">
         <v>1386</v>
@@ -8204,13 +8210,13 @@
         <v>1006751</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,13 +8231,13 @@
         <v>2894901</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H29" s="7">
         <v>4419</v>
@@ -8240,10 +8246,10 @@
         <v>3095314</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>562</v>
@@ -8255,13 +8261,13 @@
         <v>5990215</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8317,7 +8323,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_AC_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16261277-2A81-4837-A36D-96C16EE18CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D99FD88-659A-4F4C-B226-6B3A62897365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AAC623D3-53AF-4194-AFE0-7DA686D14EDB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A02E58E-00BD-44A7-B878-BD18137C00C9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="637">
   <si>
     <t>Población con apoyo confidencial bajo (Duke) en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -74,61 +74,61 @@
     <t>Apoyo bajo</t>
   </si>
   <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
   </si>
   <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1699 +137,1819 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
   </si>
   <si>
     <t>24,52%</t>
   </si>
   <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2016 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>16,56%</t>
   </si>
   <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2016 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D665819-2512-4709-B3CB-9AC22B98E01C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9020829B-3617-477E-813D-33E3C24FAF26}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2359,10 +2479,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="D4" s="7">
-        <v>71791</v>
+        <v>219114</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2374,10 +2494,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="I4" s="7">
-        <v>77914</v>
+        <v>234364</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2389,10 +2509,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>134</v>
+        <v>431</v>
       </c>
       <c r="N4" s="7">
-        <v>149705</v>
+        <v>453478</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2410,10 +2530,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7">
-        <v>201219</v>
+        <v>53896</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2425,10 +2545,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>182924</v>
+        <v>26474</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2440,10 +2560,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>382</v>
+        <v>85</v>
       </c>
       <c r="N5" s="7">
-        <v>384143</v>
+        <v>80370</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2514,10 +2634,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="D7" s="7">
-        <v>100117</v>
+        <v>288617</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2529,10 +2649,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="I7" s="7">
-        <v>133609</v>
+        <v>333948</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2544,10 +2664,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>228</v>
+        <v>601</v>
       </c>
       <c r="N7" s="7">
-        <v>233726</v>
+        <v>622565</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2565,10 +2685,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>368</v>
+        <v>192</v>
       </c>
       <c r="D8" s="7">
-        <v>391874</v>
+        <v>203373</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2580,10 +2700,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="I8" s="7">
-        <v>370340</v>
+        <v>170001</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2595,10 +2715,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>735</v>
+        <v>362</v>
       </c>
       <c r="N8" s="7">
-        <v>762214</v>
+        <v>373375</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2619,7 +2739,7 @@
         <v>464</v>
       </c>
       <c r="D9" s="7">
-        <v>491991</v>
+        <v>491990</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2669,10 +2789,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="D10" s="7">
-        <v>23877</v>
+        <v>197672</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2684,10 +2804,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="I10" s="7">
-        <v>39470</v>
+        <v>191065</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2699,10 +2819,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>63</v>
+        <v>382</v>
       </c>
       <c r="N10" s="7">
-        <v>63347</v>
+        <v>388737</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2720,10 +2840,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>286</v>
+        <v>119</v>
       </c>
       <c r="D11" s="7">
-        <v>294969</v>
+        <v>121174</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2735,10 +2855,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>296</v>
+        <v>144</v>
       </c>
       <c r="I11" s="7">
-        <v>295942</v>
+        <v>144347</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2750,10 +2870,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>582</v>
+        <v>263</v>
       </c>
       <c r="N11" s="7">
-        <v>590911</v>
+        <v>265521</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2824,10 +2944,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>51</v>
+        <v>259</v>
       </c>
       <c r="D13" s="7">
-        <v>50199</v>
+        <v>255075</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2839,10 +2959,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="I13" s="7">
-        <v>60903</v>
+        <v>258237</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2854,10 +2974,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>112</v>
+        <v>524</v>
       </c>
       <c r="N13" s="7">
-        <v>111103</v>
+        <v>513312</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2875,10 +2995,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>311</v>
+        <v>103</v>
       </c>
       <c r="D14" s="7">
-        <v>308472</v>
+        <v>103596</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2890,10 +3010,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>323</v>
+        <v>119</v>
       </c>
       <c r="I14" s="7">
-        <v>310553</v>
+        <v>113219</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2905,10 +3025,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>634</v>
+        <v>222</v>
       </c>
       <c r="N14" s="7">
-        <v>619024</v>
+        <v>216815</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2979,10 +3099,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="D16" s="7">
-        <v>35467</v>
+        <v>161215</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2994,10 +3114,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="I16" s="7">
-        <v>45833</v>
+        <v>178963</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -3009,10 +3129,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="N16" s="7">
-        <v>81300</v>
+        <v>340177</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -3030,10 +3150,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7">
-        <v>167841</v>
+        <v>42093</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -3045,10 +3165,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="I17" s="7">
-        <v>161835</v>
+        <v>28705</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -3060,10 +3180,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>327</v>
+        <v>70</v>
       </c>
       <c r="N17" s="7">
-        <v>329676</v>
+        <v>70799</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -3134,10 +3254,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="D19" s="7">
-        <v>42796</v>
+        <v>187915</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -3149,10 +3269,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="I19" s="7">
-        <v>59738</v>
+        <v>204735</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -3164,10 +3284,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>99</v>
+        <v>386</v>
       </c>
       <c r="N19" s="7">
-        <v>102534</v>
+        <v>392651</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -3185,10 +3305,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="D20" s="7">
-        <v>228015</v>
+        <v>82896</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -3200,10 +3320,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="I20" s="7">
-        <v>218406</v>
+        <v>73409</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -3215,10 +3335,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>437</v>
+        <v>150</v>
       </c>
       <c r="N20" s="7">
-        <v>446421</v>
+        <v>156304</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -3289,10 +3409,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>53</v>
+        <v>316</v>
       </c>
       <c r="D22" s="7">
-        <v>50233</v>
+        <v>322302</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -3304,10 +3424,10 @@
         <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>74</v>
+        <v>301</v>
       </c>
       <c r="I22" s="7">
-        <v>77482</v>
+        <v>312512</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -3319,10 +3439,10 @@
         <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>127</v>
+        <v>617</v>
       </c>
       <c r="N22" s="7">
-        <v>127715</v>
+        <v>634814</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>133</v>
@@ -3340,10 +3460,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>545</v>
+        <v>282</v>
       </c>
       <c r="D23" s="7">
-        <v>564794</v>
+        <v>292725</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>136</v>
@@ -3355,10 +3475,10 @@
         <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>546</v>
+        <v>319</v>
       </c>
       <c r="I23" s="7">
-        <v>559757</v>
+        <v>324727</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>139</v>
@@ -3370,10 +3490,10 @@
         <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>1091</v>
+        <v>601</v>
       </c>
       <c r="N23" s="7">
-        <v>1124551</v>
+        <v>617452</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>142</v>
@@ -3444,10 +3564,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="D25" s="7">
-        <v>105867</v>
+        <v>593957</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>146</v>
@@ -3459,10 +3579,10 @@
         <v>148</v>
       </c>
       <c r="H25" s="7">
-        <v>122</v>
+        <v>639</v>
       </c>
       <c r="I25" s="7">
-        <v>132215</v>
+        <v>674887</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>149</v>
@@ -3474,10 +3594,10 @@
         <v>151</v>
       </c>
       <c r="M25" s="7">
-        <v>225</v>
+        <v>1224</v>
       </c>
       <c r="N25" s="7">
-        <v>238082</v>
+        <v>1268844</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>152</v>
@@ -3495,10 +3615,10 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>632</v>
+        <v>150</v>
       </c>
       <c r="D26" s="7">
-        <v>636378</v>
+        <v>148288</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>155</v>
@@ -3510,10 +3630,10 @@
         <v>157</v>
       </c>
       <c r="H26" s="7">
-        <v>622</v>
+        <v>105</v>
       </c>
       <c r="I26" s="7">
-        <v>650145</v>
+        <v>107473</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>158</v>
@@ -3525,10 +3645,10 @@
         <v>160</v>
       </c>
       <c r="M26" s="7">
-        <v>1254</v>
+        <v>255</v>
       </c>
       <c r="N26" s="7">
-        <v>1286523</v>
+        <v>255761</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>161</v>
@@ -3599,10 +3719,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>472</v>
+        <v>2190</v>
       </c>
       <c r="D28" s="7">
-        <v>480348</v>
+        <v>2225867</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>164</v>
@@ -3614,10 +3734,10 @@
         <v>166</v>
       </c>
       <c r="H28" s="7">
-        <v>593</v>
+        <v>2309</v>
       </c>
       <c r="I28" s="7">
-        <v>627165</v>
+        <v>2388711</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>167</v>
@@ -3629,10 +3749,10 @@
         <v>169</v>
       </c>
       <c r="M28" s="7">
-        <v>1065</v>
+        <v>4499</v>
       </c>
       <c r="N28" s="7">
-        <v>1107513</v>
+        <v>4614578</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>170</v>
@@ -3650,10 +3770,10 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2740</v>
+        <v>1022</v>
       </c>
       <c r="D29" s="7">
-        <v>2793561</v>
+        <v>1048042</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>173</v>
@@ -3665,10 +3785,10 @@
         <v>175</v>
       </c>
       <c r="H29" s="7">
-        <v>2702</v>
+        <v>986</v>
       </c>
       <c r="I29" s="7">
-        <v>2749901</v>
+        <v>988355</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>176</v>
@@ -3680,10 +3800,10 @@
         <v>178</v>
       </c>
       <c r="M29" s="7">
-        <v>5442</v>
+        <v>2008</v>
       </c>
       <c r="N29" s="7">
-        <v>5543463</v>
+        <v>2036398</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>179</v>
@@ -3772,7 +3892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0898D4A-3BB7-4061-BB28-F39C3E61A2A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CF7FEF-9E3F-4644-92AB-07631F20C45B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4027,10 +4147,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="D7" s="7">
-        <v>107575</v>
+        <v>277848</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>185</v>
@@ -4042,10 +4162,10 @@
         <v>187</v>
       </c>
       <c r="H7" s="7">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="I7" s="7">
-        <v>114465</v>
+        <v>298852</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>188</v>
@@ -4057,19 +4177,19 @@
         <v>190</v>
       </c>
       <c r="M7" s="7">
-        <v>206</v>
+        <v>533</v>
       </c>
       <c r="N7" s="7">
-        <v>222040</v>
+        <v>576700</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,49 +4198,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>370</v>
+        <v>213</v>
       </c>
       <c r="D8" s="7">
-        <v>395995</v>
+        <v>225722</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>203</v>
+      </c>
+      <c r="I8" s="7">
+        <v>223718</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H8" s="7">
-        <v>373</v>
-      </c>
-      <c r="I8" s="7">
-        <v>408105</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>416</v>
+      </c>
+      <c r="N8" s="7">
+        <v>449440</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="M8" s="7">
-        <v>743</v>
-      </c>
-      <c r="N8" s="7">
-        <v>804100</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,49 +4302,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="D10" s="7">
-        <v>38273</v>
+        <v>208920</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>231</v>
+      </c>
+      <c r="I10" s="7">
+        <v>250174</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="7">
-        <v>40</v>
-      </c>
-      <c r="I10" s="7">
-        <v>43684</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>436</v>
+      </c>
+      <c r="N10" s="7">
+        <v>459094</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M10" s="7">
-        <v>77</v>
-      </c>
-      <c r="N10" s="7">
-        <v>81957</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,49 +4353,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>281</v>
+        <v>113</v>
       </c>
       <c r="D11" s="7">
-        <v>284746</v>
+        <v>114099</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>85</v>
+      </c>
+      <c r="I11" s="7">
+        <v>89860</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="H11" s="7">
-        <v>276</v>
-      </c>
-      <c r="I11" s="7">
-        <v>296350</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="7">
+        <v>198</v>
+      </c>
+      <c r="N11" s="7">
+        <v>203959</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M11" s="7">
-        <v>557</v>
-      </c>
-      <c r="N11" s="7">
-        <v>581096</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,49 +4457,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>117</v>
+        <v>381</v>
       </c>
       <c r="D13" s="7">
-        <v>124159</v>
+        <v>404219</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>431</v>
+      </c>
+      <c r="I13" s="7">
+        <v>468708</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H13" s="7">
-        <v>172</v>
-      </c>
-      <c r="I13" s="7">
-        <v>187836</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>812</v>
+      </c>
+      <c r="N13" s="7">
+        <v>872926</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="M13" s="7">
-        <v>289</v>
-      </c>
-      <c r="N13" s="7">
-        <v>311995</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,49 +4508,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>502</v>
+        <v>238</v>
       </c>
       <c r="D14" s="7">
-        <v>536755</v>
+        <v>256695</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>190</v>
+      </c>
+      <c r="I14" s="7">
+        <v>201511</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="H14" s="7">
-        <v>449</v>
-      </c>
-      <c r="I14" s="7">
-        <v>482383</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>428</v>
+      </c>
+      <c r="N14" s="7">
+        <v>458206</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="M14" s="7">
-        <v>951</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1019137</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,49 +4612,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D16" s="7">
-        <v>31235</v>
+        <v>112866</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>149</v>
+      </c>
+      <c r="I16" s="7">
+        <v>156875</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H16" s="7">
-        <v>48</v>
-      </c>
-      <c r="I16" s="7">
-        <v>50219</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>253</v>
+      </c>
+      <c r="N16" s="7">
+        <v>269742</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="M16" s="7">
-        <v>77</v>
-      </c>
-      <c r="N16" s="7">
-        <v>81453</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,49 +4663,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="D17" s="7">
-        <v>180368</v>
+        <v>98737</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>62</v>
+      </c>
+      <c r="I17" s="7">
+        <v>61823</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H17" s="7">
-        <v>163</v>
-      </c>
-      <c r="I17" s="7">
-        <v>168479</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>153</v>
+      </c>
+      <c r="N17" s="7">
+        <v>160560</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="M17" s="7">
-        <v>329</v>
-      </c>
-      <c r="N17" s="7">
-        <v>348849</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,49 +4767,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="D19" s="7">
-        <v>43651</v>
+        <v>165511</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>204</v>
+      </c>
+      <c r="I19" s="7">
+        <v>212360</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H19" s="7">
-        <v>50</v>
-      </c>
-      <c r="I19" s="7">
-        <v>54094</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>360</v>
+      </c>
+      <c r="N19" s="7">
+        <v>377872</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="M19" s="7">
-        <v>90</v>
-      </c>
-      <c r="N19" s="7">
-        <v>97745</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,49 +4818,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="D20" s="7">
-        <v>226186</v>
+        <v>104326</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>64</v>
+      </c>
+      <c r="I20" s="7">
+        <v>66571</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H20" s="7">
-        <v>218</v>
-      </c>
-      <c r="I20" s="7">
-        <v>224837</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>165</v>
+      </c>
+      <c r="N20" s="7">
+        <v>170896</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M20" s="7">
-        <v>435</v>
-      </c>
-      <c r="N20" s="7">
-        <v>451023</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,49 +4922,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>92</v>
+        <v>361</v>
       </c>
       <c r="D22" s="7">
-        <v>100287</v>
+        <v>392907</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>433</v>
+      </c>
+      <c r="I22" s="7">
+        <v>475687</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H22" s="7">
-        <v>103</v>
-      </c>
-      <c r="I22" s="7">
-        <v>116489</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>794</v>
+      </c>
+      <c r="N22" s="7">
+        <v>868593</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="M22" s="7">
-        <v>195</v>
-      </c>
-      <c r="N22" s="7">
-        <v>216775</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,49 +4973,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>518</v>
+        <v>249</v>
       </c>
       <c r="D23" s="7">
-        <v>554596</v>
+        <v>261976</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>197</v>
+      </c>
+      <c r="I23" s="7">
+        <v>210322</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H23" s="7">
-        <v>527</v>
-      </c>
-      <c r="I23" s="7">
-        <v>569520</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>446</v>
+      </c>
+      <c r="N23" s="7">
+        <v>472299</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="M23" s="7">
-        <v>1045</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1124117</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,25 +5077,25 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>157</v>
+        <v>634</v>
       </c>
       <c r="D25" s="7">
-        <v>177732</v>
+        <v>693105</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H25" s="7">
-        <v>167</v>
+        <v>671</v>
       </c>
       <c r="I25" s="7">
-        <v>184303</v>
+        <v>727721</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>292</v>
@@ -4987,10 +5107,10 @@
         <v>294</v>
       </c>
       <c r="M25" s="7">
-        <v>324</v>
+        <v>1305</v>
       </c>
       <c r="N25" s="7">
-        <v>362035</v>
+        <v>1420826</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>295</v>
@@ -5008,49 +5128,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="D26" s="7">
-        <v>597439</v>
+        <v>82066</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>21</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
-        <v>588</v>
+        <v>84</v>
       </c>
       <c r="I26" s="7">
-        <v>637468</v>
+        <v>94050</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
-        <v>1144</v>
+        <v>163</v>
       </c>
       <c r="N26" s="7">
-        <v>1234907</v>
+        <v>176116</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,49 +5232,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>572</v>
+        <v>2098</v>
       </c>
       <c r="D28" s="7">
-        <v>622911</v>
+        <v>2255376</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>306</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
-        <v>686</v>
+        <v>2395</v>
       </c>
       <c r="I28" s="7">
-        <v>751091</v>
+        <v>2590376</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>36</v>
+        <v>311</v>
       </c>
       <c r="M28" s="7">
-        <v>1258</v>
+        <v>4493</v>
       </c>
       <c r="N28" s="7">
-        <v>1374002</v>
+        <v>4845753</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>239</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,49 +5283,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2610</v>
+        <v>1084</v>
       </c>
       <c r="D29" s="7">
-        <v>2776086</v>
+        <v>1143621</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
-        <v>2594</v>
+        <v>885</v>
       </c>
       <c r="I29" s="7">
-        <v>2787141</v>
+        <v>947856</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>46</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
-        <v>5204</v>
+        <v>1969</v>
       </c>
       <c r="N29" s="7">
-        <v>5563227</v>
+        <v>2091477</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,7 +5367,7 @@
         <v>6462</v>
       </c>
       <c r="N30" s="7">
-        <v>6937229</v>
+        <v>6937230</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5285,7 +5405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C446922-9B5A-4F5F-ABC0-AF4B099FE7E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2309D41-5617-401C-96BA-8375FCCD9A77}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5302,7 +5422,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5403,49 +5523,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="D4" s="7">
-        <v>53608</v>
+        <v>235116</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="I4" s="7">
-        <v>65189</v>
+        <v>237962</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
-        <v>112</v>
+        <v>444</v>
       </c>
       <c r="N4" s="7">
-        <v>118797</v>
+        <v>473079</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,49 +5574,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>233214</v>
+        <v>51706</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7">
-        <v>220603</v>
+        <v>47830</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
-        <v>423</v>
+        <v>91</v>
       </c>
       <c r="N5" s="7">
-        <v>453817</v>
+        <v>99535</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,49 +5678,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="D7" s="7">
-        <v>78517</v>
+        <v>398608</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="I7" s="7">
-        <v>90068</v>
+        <v>418162</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
-        <v>157</v>
+        <v>759</v>
       </c>
       <c r="N7" s="7">
-        <v>168586</v>
+        <v>816771</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,49 +5729,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>395</v>
+        <v>94</v>
       </c>
       <c r="D8" s="7">
-        <v>419988</v>
+        <v>99897</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
-        <v>399</v>
+        <v>98</v>
       </c>
       <c r="I8" s="7">
-        <v>428575</v>
+        <v>100481</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
-        <v>794</v>
+        <v>192</v>
       </c>
       <c r="N8" s="7">
-        <v>848562</v>
+        <v>200377</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,49 +5833,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="D10" s="7">
-        <v>59010</v>
+        <v>226232</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>353</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
-        <v>63</v>
+        <v>266</v>
       </c>
       <c r="I10" s="7">
-        <v>67131</v>
+        <v>269921</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
-        <v>128</v>
+        <v>507</v>
       </c>
       <c r="N10" s="7">
-        <v>126141</v>
+        <v>496154</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,49 +5884,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>269</v>
+        <v>93</v>
       </c>
       <c r="D11" s="7">
-        <v>258690</v>
+        <v>91468</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>359</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
-        <v>267</v>
+        <v>64</v>
       </c>
       <c r="I11" s="7">
-        <v>266619</v>
+        <v>63829</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
-        <v>536</v>
+        <v>157</v>
       </c>
       <c r="N11" s="7">
-        <v>525309</v>
+        <v>155296</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,49 +5988,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="D13" s="7">
-        <v>49049</v>
+        <v>169232</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>367</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="I13" s="7">
-        <v>51044</v>
+        <v>210299</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
-        <v>88</v>
+        <v>351</v>
       </c>
       <c r="N13" s="7">
-        <v>100093</v>
+        <v>379531</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,49 +6039,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>307</v>
+        <v>192</v>
       </c>
       <c r="D14" s="7">
-        <v>318890</v>
+        <v>198708</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
-        <v>313</v>
+        <v>165</v>
       </c>
       <c r="I14" s="7">
-        <v>334178</v>
+        <v>174923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
-        <v>620</v>
+        <v>357</v>
       </c>
       <c r="N14" s="7">
-        <v>653068</v>
+        <v>373630</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,7 +6093,7 @@
         <v>352</v>
       </c>
       <c r="D15" s="7">
-        <v>367939</v>
+        <v>367940</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6023,49 +6143,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="D16" s="7">
-        <v>23456</v>
+        <v>182267</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="I16" s="7">
-        <v>24979</v>
+        <v>190932</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
-        <v>48</v>
+        <v>377</v>
       </c>
       <c r="N16" s="7">
-        <v>48435</v>
+        <v>373199</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,49 +6194,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7">
-        <v>187765</v>
+        <v>28954</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="I17" s="7">
-        <v>193608</v>
+        <v>27655</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
-        <v>387</v>
+        <v>58</v>
       </c>
       <c r="N17" s="7">
-        <v>381373</v>
+        <v>56609</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,49 +6298,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="D19" s="7">
-        <v>43956</v>
+        <v>203719</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="I19" s="7">
-        <v>68667</v>
+        <v>208532</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
-        <v>106</v>
+        <v>398</v>
       </c>
       <c r="N19" s="7">
-        <v>112623</v>
+        <v>412251</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,49 +6349,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c r="D20" s="7">
-        <v>219167</v>
+        <v>59404</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="H20" s="7">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="I20" s="7">
-        <v>202509</v>
+        <v>62644</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="M20" s="7">
-        <v>414</v>
+        <v>122</v>
       </c>
       <c r="N20" s="7">
-        <v>421676</v>
+        <v>122048</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>268</v>
+        <v>424</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,49 +6453,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>128</v>
+        <v>474</v>
       </c>
       <c r="D22" s="7">
-        <v>147960</v>
+        <v>536068</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="H22" s="7">
-        <v>147</v>
+        <v>545</v>
       </c>
       <c r="I22" s="7">
-        <v>162286</v>
+        <v>585211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="M22" s="7">
-        <v>275</v>
+        <v>1019</v>
       </c>
       <c r="N22" s="7">
-        <v>310246</v>
+        <v>1121279</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>322</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,49 +6504,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>449</v>
+        <v>103</v>
       </c>
       <c r="D23" s="7">
-        <v>505095</v>
+        <v>116987</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="H23" s="7">
-        <v>493</v>
+        <v>95</v>
       </c>
       <c r="I23" s="7">
-        <v>522106</v>
+        <v>99181</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="M23" s="7">
-        <v>942</v>
+        <v>198</v>
       </c>
       <c r="N23" s="7">
-        <v>1027201</v>
+        <v>216168</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>331</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,49 +6608,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>118</v>
+        <v>692</v>
       </c>
       <c r="D25" s="7">
-        <v>122762</v>
+        <v>718426</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="H25" s="7">
-        <v>114</v>
+        <v>702</v>
       </c>
       <c r="I25" s="7">
-        <v>129423</v>
+        <v>770185</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>371</v>
+        <v>448</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="M25" s="7">
-        <v>232</v>
+        <v>1394</v>
       </c>
       <c r="N25" s="7">
-        <v>252185</v>
+        <v>1488611</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,49 +6659,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>632</v>
+        <v>58</v>
       </c>
       <c r="D26" s="7">
-        <v>655821</v>
+        <v>60157</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="H26" s="7">
-        <v>639</v>
+        <v>51</v>
       </c>
       <c r="I26" s="7">
-        <v>694694</v>
+        <v>53932</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>379</v>
+        <v>458</v>
       </c>
       <c r="M26" s="7">
-        <v>1271</v>
+        <v>109</v>
       </c>
       <c r="N26" s="7">
-        <v>1350515</v>
+        <v>114089</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,49 +6763,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>548</v>
+        <v>2541</v>
       </c>
       <c r="D28" s="7">
-        <v>578318</v>
+        <v>2669669</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="H28" s="7">
-        <v>598</v>
+        <v>2708</v>
       </c>
       <c r="I28" s="7">
-        <v>658789</v>
+        <v>2891205</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>452</v>
+        <v>362</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="M28" s="7">
-        <v>1146</v>
+        <v>5249</v>
       </c>
       <c r="N28" s="7">
-        <v>1237107</v>
+        <v>5560875</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>276</v>
+        <v>468</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,49 +6814,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2668</v>
+        <v>675</v>
       </c>
       <c r="D29" s="7">
-        <v>2798630</v>
+        <v>707279</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="H29" s="7">
-        <v>2719</v>
+        <v>609</v>
       </c>
       <c r="I29" s="7">
-        <v>2862891</v>
+        <v>630475</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="M29" s="7">
-        <v>5387</v>
+        <v>1284</v>
       </c>
       <c r="N29" s="7">
-        <v>5661522</v>
+        <v>1337754</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>314</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>285</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,7 +6936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EC6226-2383-4384-A356-F35DCBB51230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E253D2F9-4F62-49EE-A0AD-35779FD21F00}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6833,7 +6953,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6934,49 +7054,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="D4" s="7">
-        <v>10606</v>
+        <v>137632</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="H4" s="7">
-        <v>30</v>
+        <v>327</v>
       </c>
       <c r="I4" s="7">
-        <v>14933</v>
+        <v>159006</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="M4" s="7">
-        <v>47</v>
+        <v>510</v>
       </c>
       <c r="N4" s="7">
-        <v>25539</v>
+        <v>296637</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6985,49 +7105,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>313</v>
+        <v>147</v>
       </c>
       <c r="D5" s="7">
-        <v>249006</v>
+        <v>121980</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="H5" s="7">
-        <v>503</v>
+        <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>254067</v>
+        <v>109994</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="M5" s="7">
-        <v>816</v>
+        <v>353</v>
       </c>
       <c r="N5" s="7">
-        <v>503073</v>
+        <v>231975</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,49 +7209,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="D7" s="7">
-        <v>66408</v>
+        <v>327111</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="H7" s="7">
-        <v>104</v>
+        <v>422</v>
       </c>
       <c r="I7" s="7">
-        <v>77001</v>
+        <v>316594</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="M7" s="7">
-        <v>159</v>
+        <v>662</v>
       </c>
       <c r="N7" s="7">
-        <v>143409</v>
+        <v>643705</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>334</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,49 +7260,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>322</v>
+        <v>137</v>
       </c>
       <c r="D8" s="7">
-        <v>448312</v>
+        <v>187609</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="H8" s="7">
-        <v>610</v>
+        <v>292</v>
       </c>
       <c r="I8" s="7">
-        <v>475461</v>
+        <v>235868</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="M8" s="7">
-        <v>932</v>
+        <v>429</v>
       </c>
       <c r="N8" s="7">
-        <v>923773</v>
+        <v>423477</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>343</v>
+        <v>511</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,49 +7364,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="D10" s="7">
-        <v>38822</v>
+        <v>142149</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>515</v>
       </c>
       <c r="H10" s="7">
-        <v>86</v>
+        <v>278</v>
       </c>
       <c r="I10" s="7">
-        <v>50323</v>
+        <v>178584</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="M10" s="7">
-        <v>136</v>
+        <v>451</v>
       </c>
       <c r="N10" s="7">
-        <v>89145</v>
+        <v>320733</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>485</v>
+        <v>520</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>96</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,49 +7415,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>297</v>
+        <v>174</v>
       </c>
       <c r="D11" s="7">
-        <v>273662</v>
+        <v>170335</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>174</v>
+        <v>523</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="H11" s="7">
-        <v>420</v>
+        <v>228</v>
       </c>
       <c r="I11" s="7">
-        <v>301249</v>
+        <v>172988</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="M11" s="7">
-        <v>717</v>
+        <v>402</v>
       </c>
       <c r="N11" s="7">
-        <v>574911</v>
+        <v>343323</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>106</v>
+        <v>529</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,49 +7519,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="D13" s="7">
-        <v>36205</v>
+        <v>104435</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>432</v>
+        <v>533</v>
       </c>
       <c r="H13" s="7">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="I13" s="7">
-        <v>48283</v>
+        <v>143872</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="M13" s="7">
-        <v>122</v>
+        <v>330</v>
       </c>
       <c r="N13" s="7">
-        <v>84488</v>
+        <v>248307</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,49 +7570,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="D14" s="7">
-        <v>281691</v>
+        <v>213461</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>440</v>
+        <v>541</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="H14" s="7">
-        <v>498</v>
+        <v>351</v>
       </c>
       <c r="I14" s="7">
-        <v>369443</v>
+        <v>273854</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="M14" s="7">
-        <v>745</v>
+        <v>537</v>
       </c>
       <c r="N14" s="7">
-        <v>651134</v>
+        <v>487315</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,49 +7674,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>260</v>
       </c>
       <c r="D16" s="7">
-        <v>22153</v>
+        <v>181159</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>334</v>
+        <v>551</v>
       </c>
       <c r="H16" s="7">
-        <v>62</v>
+        <v>459</v>
       </c>
       <c r="I16" s="7">
-        <v>26030</v>
+        <v>213527</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="M16" s="7">
-        <v>98</v>
+        <v>719</v>
       </c>
       <c r="N16" s="7">
-        <v>48182</v>
+        <v>394686</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>555</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>484</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,49 +7725,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>173839</v>
+        <v>14833</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>559</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>518</v>
+        <v>560</v>
       </c>
       <c r="H17" s="7">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="I17" s="7">
-        <v>205466</v>
+        <v>17969</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="M17" s="7">
-        <v>671</v>
+        <v>50</v>
       </c>
       <c r="N17" s="7">
-        <v>379306</v>
+        <v>32802</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>564</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>492</v>
+        <v>565</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7709,49 +7829,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="D19" s="7">
-        <v>35314</v>
+        <v>107793</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="H19" s="7">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="I19" s="7">
-        <v>34887</v>
+        <v>108802</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="M19" s="7">
-        <v>139</v>
+        <v>400</v>
       </c>
       <c r="N19" s="7">
-        <v>70201</v>
+        <v>216596</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,49 +7880,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>309</v>
+        <v>196</v>
       </c>
       <c r="D20" s="7">
-        <v>241420</v>
+        <v>168941</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="H20" s="7">
-        <v>381</v>
+        <v>233</v>
       </c>
       <c r="I20" s="7">
-        <v>240308</v>
+        <v>166393</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="M20" s="7">
-        <v>690</v>
+        <v>429</v>
       </c>
       <c r="N20" s="7">
-        <v>481729</v>
+        <v>335334</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,49 +7984,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>73</v>
+        <v>389</v>
       </c>
       <c r="D22" s="7">
-        <v>72170</v>
+        <v>381339</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>500</v>
+        <v>585</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>553</v>
+        <v>586</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>210</v>
+        <v>587</v>
       </c>
       <c r="H22" s="7">
-        <v>121</v>
+        <v>622</v>
       </c>
       <c r="I22" s="7">
-        <v>78711</v>
+        <v>428362</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="M22" s="7">
-        <v>194</v>
+        <v>1011</v>
       </c>
       <c r="N22" s="7">
-        <v>150882</v>
+        <v>809701</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7915,49 +8035,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>518</v>
+        <v>202</v>
       </c>
       <c r="D23" s="7">
-        <v>546475</v>
+        <v>237306</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>507</v>
+        <v>594</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>217</v>
+        <v>595</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="H23" s="7">
-        <v>823</v>
+        <v>322</v>
       </c>
       <c r="I23" s="7">
-        <v>601301</v>
+        <v>251650</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="M23" s="7">
-        <v>1341</v>
+        <v>524</v>
       </c>
       <c r="N23" s="7">
-        <v>1147776</v>
+        <v>488957</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>566</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8019,49 +8139,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>186</v>
+        <v>658</v>
       </c>
       <c r="D25" s="7">
-        <v>175791</v>
+        <v>680849</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="H25" s="7">
-        <v>305</v>
+        <v>935</v>
       </c>
       <c r="I25" s="7">
-        <v>219114</v>
+        <v>757142</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>571</v>
+        <v>607</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>17</v>
+        <v>608</v>
       </c>
       <c r="M25" s="7">
-        <v>491</v>
+        <v>1593</v>
       </c>
       <c r="N25" s="7">
-        <v>394905</v>
+        <v>1437991</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>32</v>
+        <v>610</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>573</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,49 +8190,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>574</v>
+        <v>102</v>
       </c>
       <c r="D26" s="7">
-        <v>680495</v>
+        <v>175437</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>574</v>
+        <v>612</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>575</v>
+        <v>613</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>576</v>
+        <v>614</v>
       </c>
       <c r="H26" s="7">
-        <v>755</v>
+        <v>125</v>
       </c>
       <c r="I26" s="7">
-        <v>648019</v>
+        <v>109991</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>577</v>
+        <v>615</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>27</v>
+        <v>616</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>578</v>
+        <v>617</v>
       </c>
       <c r="M26" s="7">
-        <v>1329</v>
+        <v>227</v>
       </c>
       <c r="N26" s="7">
-        <v>1328513</v>
+        <v>285427</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>579</v>
+        <v>618</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>580</v>
+        <v>619</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>41</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8174,49 +8294,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>518</v>
+        <v>2178</v>
       </c>
       <c r="D28" s="7">
-        <v>457469</v>
+        <v>2062467</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>583</v>
+        <v>623</v>
       </c>
       <c r="H28" s="7">
-        <v>868</v>
+        <v>3498</v>
       </c>
       <c r="I28" s="7">
-        <v>549282</v>
+        <v>2305889</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>556</v>
+        <v>190</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="M28" s="7">
-        <v>1386</v>
+        <v>5676</v>
       </c>
       <c r="N28" s="7">
-        <v>1006751</v>
+        <v>4368356</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,49 +8345,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2822</v>
+        <v>1162</v>
       </c>
       <c r="D29" s="7">
-        <v>2894901</v>
+        <v>1289903</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="H29" s="7">
-        <v>4419</v>
+        <v>1789</v>
       </c>
       <c r="I29" s="7">
-        <v>3095314</v>
+        <v>1338707</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>562</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
-        <v>7241</v>
+        <v>2951</v>
       </c>
       <c r="N29" s="7">
-        <v>5990215</v>
+        <v>2628610</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57_AC_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D99FD88-659A-4F4C-B226-6B3A62897365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DAF71E9-BF12-4E4E-933B-6924CD9C420C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A02E58E-00BD-44A7-B878-BD18137C00C9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A1366E28-21FB-477B-AAE6-040EC5226531}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="638">
   <si>
     <t>Población con apoyo confidencial bajo (Duke) en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -593,7 +593,58 @@
     <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>55,18%</t>
@@ -692,58 +743,58 @@
     <t>34,49%</t>
   </si>
   <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
   </si>
   <si>
     <t>53,34%</t>
@@ -1442,9 +1493,6 @@
     <t>83,49%</t>
   </si>
   <si>
-    <t>80,61%</t>
-  </si>
-  <si>
     <t>79,62%</t>
   </si>
   <si>
@@ -1466,9 +1514,6 @@
     <t>16,51%</t>
   </si>
   <si>
-    <t>19,39%</t>
-  </si>
-  <si>
     <t>18,43%</t>
   </si>
   <si>
@@ -1478,478 +1523,436 @@
     <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
   </si>
   <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
   </si>
   <si>
     <t>58,95%</t>
   </si>
   <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
   </si>
   <si>
     <t>41,05%</t>
   </si>
   <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
+    <t>48,17%</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9020829B-3617-477E-813D-33E3C24FAF26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E443921-8E12-4BA3-9A64-705F457E82CA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2637,7 +2640,7 @@
         <v>272</v>
       </c>
       <c r="D7" s="7">
-        <v>288617</v>
+        <v>288618</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2739,7 +2742,7 @@
         <v>464</v>
       </c>
       <c r="D9" s="7">
-        <v>491990</v>
+        <v>491991</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3752,7 +3755,7 @@
         <v>4499</v>
       </c>
       <c r="N28" s="7">
-        <v>4614578</v>
+        <v>4614577</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>170</v>
@@ -3854,7 +3857,7 @@
         <v>6507</v>
       </c>
       <c r="N30" s="7">
-        <v>6650976</v>
+        <v>6650975</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3892,7 +3895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CF7FEF-9E3F-4644-92AB-07631F20C45B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA9E528-41B5-4DCB-A609-D30F9EDDF5CA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4010,43 +4013,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>205</v>
+      </c>
+      <c r="D4" s="7">
+        <v>212172</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>205</v>
+      </c>
+      <c r="I4" s="7">
+        <v>231239</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>410</v>
+      </c>
+      <c r="N4" s="7">
+        <v>443411</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,43 +4064,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="D5" s="7">
+        <v>78038</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I5" s="7">
+        <v>52010</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="N5" s="7">
+        <v>130048</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,43 +4115,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D6" s="7">
+        <v>290210</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>252</v>
+      </c>
+      <c r="I6" s="7">
+        <v>283249</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>530</v>
+      </c>
+      <c r="N6" s="7">
+        <v>573459</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4174,13 @@
         <v>277848</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>276</v>
@@ -4168,13 +4189,13 @@
         <v>298852</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>533</v>
@@ -4186,10 +4207,10 @@
         <v>52</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4225,13 @@
         <v>225722</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="H8" s="7">
         <v>203</v>
@@ -4219,13 +4240,13 @@
         <v>223718</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>416</v>
@@ -4237,10 +4258,10 @@
         <v>62</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4329,13 @@
         <v>208920</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>231</v>
@@ -4323,13 +4344,13 @@
         <v>250174</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>112</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>436</v>
@@ -4338,13 +4359,13 @@
         <v>459094</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4380,13 @@
         <v>114099</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>85</v>
@@ -4374,10 +4395,10 @@
         <v>89860</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>122</v>
@@ -4389,13 +4410,13 @@
         <v>203959</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,49 +4478,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>381</v>
+        <v>176</v>
       </c>
       <c r="D13" s="7">
-        <v>404219</v>
+        <v>192047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>431</v>
+        <v>226</v>
       </c>
       <c r="I13" s="7">
-        <v>468708</v>
+        <v>237468</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>812</v>
+        <v>402</v>
       </c>
       <c r="N13" s="7">
-        <v>872926</v>
+        <v>429515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,49 +4529,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="D14" s="7">
-        <v>256695</v>
+        <v>178657</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="I14" s="7">
-        <v>201511</v>
+        <v>149501</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>428</v>
+        <v>308</v>
       </c>
       <c r="N14" s="7">
-        <v>458206</v>
+        <v>328158</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,10 +4580,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>619</v>
+        <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>660914</v>
+        <v>370704</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4574,10 +4595,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>621</v>
+        <v>369</v>
       </c>
       <c r="I15" s="7">
-        <v>670219</v>
+        <v>386969</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4589,10 +4610,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1240</v>
+        <v>710</v>
       </c>
       <c r="N15" s="7">
-        <v>1331132</v>
+        <v>757673</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4618,13 +4639,13 @@
         <v>112866</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -4633,13 +4654,13 @@
         <v>156875</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>253</v>
@@ -4648,13 +4669,13 @@
         <v>269742</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4690,13 @@
         <v>98737</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -4684,13 +4705,13 @@
         <v>61823</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>153</v>
@@ -4699,13 +4720,13 @@
         <v>160560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4794,13 @@
         <v>165511</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>204</v>
@@ -4788,13 +4809,13 @@
         <v>212360</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>360</v>
@@ -4803,13 +4824,13 @@
         <v>377872</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4845,13 @@
         <v>104326</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>64</v>
@@ -4839,13 +4860,13 @@
         <v>66571</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>165</v>
@@ -4854,13 +4875,13 @@
         <v>170896</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4949,13 @@
         <v>392907</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>433</v>
@@ -4943,13 +4964,13 @@
         <v>475687</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>794</v>
@@ -4958,13 +4979,13 @@
         <v>868593</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +5000,13 @@
         <v>261976</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>197</v>
@@ -4994,13 +5015,13 @@
         <v>210322</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>446</v>
@@ -5009,13 +5030,13 @@
         <v>472299</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5104,13 @@
         <v>693105</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>671</v>
@@ -5098,13 +5119,13 @@
         <v>727721</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>1305</v>
@@ -5113,13 +5134,13 @@
         <v>1420826</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5155,13 @@
         <v>82066</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -5149,13 +5170,13 @@
         <v>94050</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
         <v>163</v>
@@ -5164,13 +5185,13 @@
         <v>176116</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,10 +5259,10 @@
         <v>2255376</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>164</v>
@@ -5253,13 +5274,13 @@
         <v>2590376</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="M28" s="7">
         <v>4493</v>
@@ -5268,13 +5289,13 @@
         <v>4845753</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5310,13 @@
         <v>1143621</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>885</v>
@@ -5304,28 +5325,28 @@
         <v>947856</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>1969</v>
       </c>
       <c r="N29" s="7">
-        <v>2091477</v>
+        <v>2091476</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,7 +5388,7 @@
         <v>6462</v>
       </c>
       <c r="N30" s="7">
-        <v>6937230</v>
+        <v>6937229</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5405,7 +5426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2309D41-5617-401C-96BA-8375FCCD9A77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48D381E-12D6-4F67-B43B-22EE1D81296C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5422,7 +5443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5529,13 +5550,13 @@
         <v>235116</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>230</v>
@@ -5544,13 +5565,13 @@
         <v>237962</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>444</v>
@@ -5559,13 +5580,13 @@
         <v>473079</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5601,13 @@
         <v>51706</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>44</v>
@@ -5595,13 +5616,13 @@
         <v>47830</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>91</v>
@@ -5610,13 +5631,13 @@
         <v>99535</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5705,13 @@
         <v>398608</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>382</v>
@@ -5699,13 +5720,13 @@
         <v>418162</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>759</v>
@@ -5714,13 +5735,13 @@
         <v>816771</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5756,13 @@
         <v>99897</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>98</v>
@@ -5750,13 +5771,13 @@
         <v>100481</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>192</v>
@@ -5765,13 +5786,13 @@
         <v>200377</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,28 +5860,28 @@
         <v>226232</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>266</v>
       </c>
       <c r="I10" s="7">
-        <v>269921</v>
+        <v>269922</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="M10" s="7">
         <v>507</v>
@@ -5869,13 +5890,13 @@
         <v>496154</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5911,13 @@
         <v>91468</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="H11" s="7">
         <v>64</v>
@@ -5905,13 +5926,13 @@
         <v>63829</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>157</v>
@@ -5920,13 +5941,13 @@
         <v>155296</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,7 +5974,7 @@
         <v>330</v>
       </c>
       <c r="I12" s="7">
-        <v>333750</v>
+        <v>333751</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5991,16 +6012,16 @@
         <v>160</v>
       </c>
       <c r="D13" s="7">
-        <v>169232</v>
+        <v>169231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="H13" s="7">
         <v>191</v>
@@ -6009,13 +6030,13 @@
         <v>210299</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="M13" s="7">
         <v>351</v>
@@ -6024,13 +6045,13 @@
         <v>379531</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6066,13 @@
         <v>198708</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>165</v>
@@ -6060,13 +6081,13 @@
         <v>174923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>357</v>
@@ -6075,13 +6096,13 @@
         <v>373630</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,7 +6114,7 @@
         <v>352</v>
       </c>
       <c r="D15" s="7">
-        <v>367940</v>
+        <v>367939</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6149,13 +6170,13 @@
         <v>182267</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>194</v>
@@ -6164,13 +6185,13 @@
         <v>190932</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>377</v>
@@ -6179,13 +6200,13 @@
         <v>373199</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,13 +6221,13 @@
         <v>28954</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -6215,13 +6236,13 @@
         <v>27655</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -6230,13 +6251,13 @@
         <v>56609</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6325,13 @@
         <v>203719</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="H19" s="7">
         <v>198</v>
@@ -6319,13 +6340,13 @@
         <v>208532</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="M19" s="7">
         <v>398</v>
@@ -6334,13 +6355,13 @@
         <v>412251</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,13 +6376,13 @@
         <v>59404</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -6370,13 +6391,13 @@
         <v>62644</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
@@ -6385,13 +6406,13 @@
         <v>122048</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6480,13 @@
         <v>536068</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="H22" s="7">
         <v>545</v>
@@ -6474,13 +6495,13 @@
         <v>585211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="M22" s="7">
         <v>1019</v>
@@ -6489,13 +6510,13 @@
         <v>1121279</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6531,13 @@
         <v>116987</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="H23" s="7">
         <v>95</v>
@@ -6525,13 +6546,13 @@
         <v>99181</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="M23" s="7">
         <v>198</v>
@@ -6540,13 +6561,13 @@
         <v>216168</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,13 +6635,13 @@
         <v>718426</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="H25" s="7">
         <v>702</v>
@@ -6629,13 +6650,13 @@
         <v>770185</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="M25" s="7">
         <v>1394</v>
@@ -6644,13 +6665,13 @@
         <v>1488611</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,13 +6686,13 @@
         <v>60157</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -6680,13 +6701,13 @@
         <v>53932</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="M26" s="7">
         <v>109</v>
@@ -6695,13 +6716,13 @@
         <v>114089</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6790,13 @@
         <v>2669669</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="H28" s="7">
         <v>2708</v>
@@ -6784,13 +6805,13 @@
         <v>2891205</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="M28" s="7">
         <v>5249</v>
@@ -6799,13 +6820,13 @@
         <v>5560875</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>467</v>
+        <v>192</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +6841,13 @@
         <v>707279</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="H29" s="7">
         <v>609</v>
@@ -6835,13 +6856,13 @@
         <v>630475</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="M29" s="7">
         <v>1284</v>
@@ -6850,13 +6871,13 @@
         <v>1337754</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,7 +6957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E253D2F9-4F62-49EE-A0AD-35779FD21F00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0204BDB1-674F-4073-9385-07DCBD73D683}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6953,7 +6974,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7057,46 +7078,46 @@
         <v>183</v>
       </c>
       <c r="D4" s="7">
-        <v>137632</v>
+        <v>163338</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="H4" s="7">
         <v>327</v>
       </c>
       <c r="I4" s="7">
-        <v>159006</v>
+        <v>169638</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="M4" s="7">
         <v>510</v>
       </c>
       <c r="N4" s="7">
-        <v>296637</v>
+        <v>332977</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,46 +7129,46 @@
         <v>147</v>
       </c>
       <c r="D5" s="7">
-        <v>121980</v>
+        <v>147365</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="H5" s="7">
         <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>109994</v>
+        <v>117554</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="M5" s="7">
         <v>353</v>
       </c>
       <c r="N5" s="7">
-        <v>231975</v>
+        <v>264919</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>510</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,7 +7180,7 @@
         <v>330</v>
       </c>
       <c r="D6" s="7">
-        <v>259612</v>
+        <v>310703</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7174,7 +7195,7 @@
         <v>533</v>
       </c>
       <c r="I6" s="7">
-        <v>269000</v>
+        <v>287192</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7189,7 +7210,7 @@
         <v>863</v>
       </c>
       <c r="N6" s="7">
-        <v>528612</v>
+        <v>597896</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7212,46 +7233,46 @@
         <v>240</v>
       </c>
       <c r="D7" s="7">
-        <v>327111</v>
+        <v>325402</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="H7" s="7">
         <v>422</v>
       </c>
       <c r="I7" s="7">
-        <v>316594</v>
+        <v>293936</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="M7" s="7">
         <v>662</v>
       </c>
       <c r="N7" s="7">
-        <v>643705</v>
+        <v>619338</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,46 +7284,46 @@
         <v>137</v>
       </c>
       <c r="D8" s="7">
-        <v>187609</v>
+        <v>188535</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="H8" s="7">
         <v>292</v>
       </c>
       <c r="I8" s="7">
-        <v>235868</v>
+        <v>219129</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="M8" s="7">
         <v>429</v>
       </c>
       <c r="N8" s="7">
-        <v>423477</v>
+        <v>407664</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7314,7 +7335,7 @@
         <v>377</v>
       </c>
       <c r="D9" s="7">
-        <v>514720</v>
+        <v>513937</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7329,7 +7350,7 @@
         <v>714</v>
       </c>
       <c r="I9" s="7">
-        <v>552462</v>
+        <v>513065</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7344,7 +7365,7 @@
         <v>1091</v>
       </c>
       <c r="N9" s="7">
-        <v>1067182</v>
+        <v>1027002</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7367,46 +7388,46 @@
         <v>173</v>
       </c>
       <c r="D10" s="7">
-        <v>142149</v>
+        <v>138011</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="H10" s="7">
         <v>278</v>
       </c>
       <c r="I10" s="7">
-        <v>178584</v>
+        <v>166443</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="M10" s="7">
         <v>451</v>
       </c>
       <c r="N10" s="7">
-        <v>320733</v>
+        <v>304454</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,46 +7439,46 @@
         <v>174</v>
       </c>
       <c r="D11" s="7">
-        <v>170335</v>
+        <v>168771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="H11" s="7">
         <v>228</v>
       </c>
       <c r="I11" s="7">
-        <v>172988</v>
+        <v>162015</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="M11" s="7">
         <v>402</v>
       </c>
       <c r="N11" s="7">
-        <v>343323</v>
+        <v>330785</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7469,7 +7490,7 @@
         <v>347</v>
       </c>
       <c r="D12" s="7">
-        <v>312484</v>
+        <v>306782</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7484,7 +7505,7 @@
         <v>506</v>
       </c>
       <c r="I12" s="7">
-        <v>351572</v>
+        <v>328458</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7499,7 +7520,7 @@
         <v>853</v>
       </c>
       <c r="N12" s="7">
-        <v>664056</v>
+        <v>635239</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7522,46 +7543,46 @@
         <v>101</v>
       </c>
       <c r="D13" s="7">
-        <v>104435</v>
+        <v>99386</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>532</v>
+        <v>120</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="H13" s="7">
         <v>229</v>
       </c>
       <c r="I13" s="7">
-        <v>143872</v>
+        <v>133284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>536</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>330</v>
       </c>
       <c r="N13" s="7">
-        <v>248307</v>
+        <v>232670</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>537</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,46 +7594,46 @@
         <v>186</v>
       </c>
       <c r="D14" s="7">
-        <v>213461</v>
+        <v>209028</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>542</v>
+        <v>111</v>
       </c>
       <c r="H14" s="7">
         <v>351</v>
       </c>
       <c r="I14" s="7">
-        <v>273854</v>
+        <v>332347</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>544</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="M14" s="7">
         <v>537</v>
       </c>
       <c r="N14" s="7">
-        <v>487315</v>
+        <v>541375</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>546</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,7 +7645,7 @@
         <v>287</v>
       </c>
       <c r="D15" s="7">
-        <v>317896</v>
+        <v>308414</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7639,7 +7660,7 @@
         <v>580</v>
       </c>
       <c r="I15" s="7">
-        <v>417726</v>
+        <v>465631</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7654,7 +7675,7 @@
         <v>867</v>
       </c>
       <c r="N15" s="7">
-        <v>735622</v>
+        <v>774045</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7677,46 +7698,46 @@
         <v>260</v>
       </c>
       <c r="D16" s="7">
-        <v>181159</v>
+        <v>164606</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="H16" s="7">
         <v>459</v>
       </c>
       <c r="I16" s="7">
-        <v>213527</v>
+        <v>192391</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>553</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="M16" s="7">
         <v>719</v>
       </c>
       <c r="N16" s="7">
-        <v>394686</v>
+        <v>356997</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,46 +7749,46 @@
         <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>14833</v>
+        <v>13452</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
       </c>
       <c r="I17" s="7">
-        <v>17969</v>
+        <v>15883</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>563</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
       </c>
       <c r="N17" s="7">
-        <v>32802</v>
+        <v>29335</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7779,7 +7800,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>195992</v>
+        <v>178058</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7794,7 +7815,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7809,7 +7830,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427488</v>
+        <v>386332</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7832,46 +7853,46 @@
         <v>174</v>
       </c>
       <c r="D19" s="7">
-        <v>107793</v>
+        <v>104155</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="H19" s="7">
         <v>226</v>
       </c>
       <c r="I19" s="7">
-        <v>108802</v>
+        <v>101569</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>570</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="M19" s="7">
         <v>400</v>
       </c>
       <c r="N19" s="7">
-        <v>216596</v>
+        <v>205724</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>575</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7883,46 +7904,46 @@
         <v>196</v>
       </c>
       <c r="D20" s="7">
-        <v>168941</v>
+        <v>165016</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="H20" s="7">
         <v>233</v>
       </c>
       <c r="I20" s="7">
-        <v>166393</v>
+        <v>155094</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>579</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="M20" s="7">
         <v>429</v>
       </c>
       <c r="N20" s="7">
-        <v>335334</v>
+        <v>320110</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>583</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7934,7 +7955,7 @@
         <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>276734</v>
+        <v>269171</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7949,7 +7970,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>275195</v>
+        <v>256663</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7964,7 +7985,7 @@
         <v>829</v>
       </c>
       <c r="N21" s="7">
-        <v>551930</v>
+        <v>525834</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7987,46 +8008,46 @@
         <v>389</v>
       </c>
       <c r="D22" s="7">
-        <v>381339</v>
+        <v>377145</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="H22" s="7">
         <v>622</v>
       </c>
       <c r="I22" s="7">
-        <v>428362</v>
+        <v>398226</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="M22" s="7">
         <v>1011</v>
       </c>
       <c r="N22" s="7">
-        <v>809701</v>
+        <v>775371</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,46 +8059,46 @@
         <v>202</v>
       </c>
       <c r="D23" s="7">
-        <v>237306</v>
+        <v>238163</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="H23" s="7">
         <v>322</v>
       </c>
       <c r="I23" s="7">
-        <v>251650</v>
+        <v>233735</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="M23" s="7">
         <v>524</v>
       </c>
       <c r="N23" s="7">
-        <v>488957</v>
+        <v>471897</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,7 +8110,7 @@
         <v>591</v>
       </c>
       <c r="D24" s="7">
-        <v>618645</v>
+        <v>615308</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8104,7 +8125,7 @@
         <v>944</v>
       </c>
       <c r="I24" s="7">
-        <v>680012</v>
+        <v>631961</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8119,7 +8140,7 @@
         <v>1535</v>
       </c>
       <c r="N24" s="7">
-        <v>1298658</v>
+        <v>1247268</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8142,46 +8163,46 @@
         <v>658</v>
       </c>
       <c r="D25" s="7">
-        <v>680849</v>
+        <v>576572</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>604</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H25" s="7">
         <v>935</v>
       </c>
       <c r="I25" s="7">
-        <v>757142</v>
+        <v>625741</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M25" s="7">
         <v>1593</v>
       </c>
       <c r="N25" s="7">
-        <v>1437991</v>
+        <v>1202314</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8193,46 +8214,46 @@
         <v>102</v>
       </c>
       <c r="D26" s="7">
-        <v>175437</v>
+        <v>349486</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>614</v>
+        <v>37</v>
       </c>
       <c r="H26" s="7">
         <v>125</v>
       </c>
       <c r="I26" s="7">
-        <v>109991</v>
+        <v>90891</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M26" s="7">
         <v>227</v>
       </c>
       <c r="N26" s="7">
-        <v>285427</v>
+        <v>440377</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8244,7 +8265,7 @@
         <v>760</v>
       </c>
       <c r="D27" s="7">
-        <v>856286</v>
+        <v>926058</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8259,7 +8280,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>867133</v>
+        <v>716632</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8274,7 +8295,7 @@
         <v>1820</v>
       </c>
       <c r="N27" s="7">
-        <v>1723418</v>
+        <v>1642691</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8297,46 +8318,46 @@
         <v>2178</v>
       </c>
       <c r="D28" s="7">
-        <v>2062467</v>
+        <v>1948615</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H28" s="7">
         <v>3498</v>
       </c>
       <c r="I28" s="7">
-        <v>2305889</v>
+        <v>2081228</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>190</v>
+        <v>626</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="M28" s="7">
         <v>5676</v>
       </c>
       <c r="N28" s="7">
-        <v>4368356</v>
+        <v>4029843</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>628</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8348,46 +8369,46 @@
         <v>1162</v>
       </c>
       <c r="D29" s="7">
-        <v>1289903</v>
+        <v>1479816</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H29" s="7">
         <v>1789</v>
       </c>
       <c r="I29" s="7">
-        <v>1338707</v>
+        <v>1326648</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>635</v>
       </c>
       <c r="M29" s="7">
         <v>2951</v>
       </c>
       <c r="N29" s="7">
-        <v>2628610</v>
+        <v>2806464</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>635</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8399,7 +8420,7 @@
         <v>3340</v>
       </c>
       <c r="D30" s="7">
-        <v>3352370</v>
+        <v>3428431</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8414,7 +8435,7 @@
         <v>5287</v>
       </c>
       <c r="I30" s="7">
-        <v>3644596</v>
+        <v>3407876</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8429,7 +8450,7 @@
         <v>8627</v>
       </c>
       <c r="N30" s="7">
-        <v>6996966</v>
+        <v>6836307</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
